--- a/TestData/Data/Repports/Classroom.xlsx
+++ b/TestData/Data/Repports/Classroom.xlsx
@@ -22,61 +22,61 @@
     <x:t>MessageType</x:t>
   </x:si>
   <x:si>
-    <x:t>Mise à jour de l'entity CA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Update_Success</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity CBR ETG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity CBRRDC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity COURS1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity COURS2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity COURS3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity COURS4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity COURS5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity LABO1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity SEM1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity SEM2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity TP1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity TP2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity TP3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity TP4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity TP5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity TP7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity WIFI</x:t>
+    <x:t>Insertion de l'entity CA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Add_Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity CBR ETG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity CBRRDC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity COURS1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity COURS2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity COURS3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity COURS4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity COURS5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity LABO1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity SEM1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity SEM2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity TP1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity TP2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity TP3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity TP4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity TP5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity TP7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity WIFI</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -444,7 +444,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="28.080625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="26.170625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="16.175425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
